--- a/OpenCart 3/target/classes/inputData.xlsx
+++ b/OpenCart 3/target/classes/inputData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fannygiraldo/Documents/Septimo/Electiva profesional/OpenCart 3/src/main/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fannygiraldo/Documents/Septimo/Electiva profesional/git/Tarea-Final-QA/OpenCart 3/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DAAE46-83B0-C449-B22B-69D05266300B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6D97B6-93DA-E845-BC6A-D2F14DCCB547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="17340" activeTab="2" xr2:uid="{2D774A35-8459-B144-96CD-9415FA2D0B84}"/>
   </bookViews>
@@ -192,7 +192,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -229,8 +229,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -277,27 +283,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -633,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC79D10-E222-154B-829A-CEFC6A981DA1}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -647,39 +665,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="11">
         <v>3041112233</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="11" t="s">
@@ -687,64 +705,72 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="14">
         <v>3214567234</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="16">
         <v>3214567896</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="17">
         <v>3241212323</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="17" t="s">
         <v>32</v>
       </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -763,7 +789,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -774,46 +800,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="1">
         <v>123456</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="8">
         <v>5678978</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="8" t="s">
         <v>7</v>
       </c>
     </row>
@@ -844,44 +870,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="4">
         <v>2</v>
       </c>
     </row>
